--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.423734333333333</v>
+        <v>0.1408123333333333</v>
       </c>
       <c r="N2">
-        <v>7.271203</v>
+        <v>0.422437</v>
       </c>
       <c r="O2">
-        <v>0.8328699661798485</v>
+        <v>0.01914604775478091</v>
       </c>
       <c r="P2">
-        <v>0.8328699661798487</v>
+        <v>0.01914604775478091</v>
       </c>
       <c r="Q2">
-        <v>363.6460245232529</v>
+        <v>23.92622013203634</v>
       </c>
       <c r="R2">
-        <v>3272.814220709276</v>
+        <v>215.335981188327</v>
       </c>
       <c r="S2">
-        <v>0.3458498668612538</v>
+        <v>0.008503113879080232</v>
       </c>
       <c r="T2">
-        <v>0.3458498668612538</v>
+        <v>0.008503113879080234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.486365</v>
+        <v>2.423734333333333</v>
       </c>
       <c r="N3">
-        <v>1.459095</v>
+        <v>7.271203</v>
       </c>
       <c r="O3">
-        <v>0.1671300338201514</v>
+        <v>0.3295516251481434</v>
       </c>
       <c r="P3">
-        <v>0.1671300338201514</v>
+        <v>0.3295516251481434</v>
       </c>
       <c r="Q3">
-        <v>72.97198223619333</v>
+        <v>411.8304116417904</v>
       </c>
       <c r="R3">
-        <v>656.7478401257399</v>
+        <v>3706.473704776113</v>
       </c>
       <c r="S3">
-        <v>0.06940086963435364</v>
+        <v>0.1463599711836554</v>
       </c>
       <c r="T3">
-        <v>0.06940086963435364</v>
+        <v>0.1463599711836554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.382243</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>205.146729</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.423734333333333</v>
+        <v>4.790095666666667</v>
       </c>
       <c r="N4">
-        <v>7.271203</v>
+        <v>14.370287</v>
       </c>
       <c r="O4">
-        <v>0.8328699661798485</v>
+        <v>0.6513023270970757</v>
       </c>
       <c r="P4">
-        <v>0.8328699661798487</v>
+        <v>0.6513023270970758</v>
       </c>
       <c r="Q4">
-        <v>165.740390149443</v>
+        <v>813.9122522945197</v>
       </c>
       <c r="R4">
-        <v>1491.663511344987</v>
+        <v>7325.210270650678</v>
       </c>
       <c r="S4">
-        <v>0.1576293648249461</v>
+        <v>0.2892554081107153</v>
       </c>
       <c r="T4">
-        <v>0.1576293648249461</v>
+        <v>0.2892554081107154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.486365</v>
+        <v>0.1408123333333333</v>
       </c>
       <c r="N5">
-        <v>1.459095</v>
+        <v>0.422437</v>
       </c>
       <c r="O5">
-        <v>0.1671300338201514</v>
+        <v>0.01914604775478091</v>
       </c>
       <c r="P5">
-        <v>0.1671300338201514</v>
+        <v>0.01914604775478091</v>
       </c>
       <c r="Q5">
-        <v>33.258729616695</v>
+        <v>9.629063195397</v>
       </c>
       <c r="R5">
-        <v>299.328566550255</v>
+        <v>86.661568758573</v>
       </c>
       <c r="S5">
-        <v>0.0316311094696785</v>
+        <v>0.003422062509142033</v>
       </c>
       <c r="T5">
-        <v>0.0316311094696785</v>
+        <v>0.003422062509142033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.15794</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>114.47382</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,27 +809,27 @@
         <v>7.271203</v>
       </c>
       <c r="O6">
-        <v>0.8328699661798485</v>
+        <v>0.3295516251481434</v>
       </c>
       <c r="P6">
-        <v>0.8328699661798487</v>
+        <v>0.3295516251481434</v>
       </c>
       <c r="Q6">
-        <v>92.48470926727335</v>
+        <v>165.740390149443</v>
       </c>
       <c r="R6">
-        <v>832.36238340546</v>
+        <v>1491.663511344987</v>
       </c>
       <c r="S6">
-        <v>0.08795868022680105</v>
+        <v>0.05890230065704728</v>
       </c>
       <c r="T6">
-        <v>0.08795868022680105</v>
+        <v>0.05890230065704728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.15794</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>114.47382</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.486365</v>
+        <v>4.790095666666667</v>
       </c>
       <c r="N7">
-        <v>1.459095</v>
+        <v>14.370287</v>
       </c>
       <c r="O7">
-        <v>0.1671300338201514</v>
+        <v>0.6513023270970757</v>
       </c>
       <c r="P7">
-        <v>0.1671300338201514</v>
+        <v>0.6513023270970758</v>
       </c>
       <c r="Q7">
-        <v>18.5586864881</v>
+        <v>327.557485871247</v>
       </c>
       <c r="R7">
-        <v>167.0281783929</v>
+        <v>2948.017372841223</v>
       </c>
       <c r="S7">
-        <v>0.01765045901283794</v>
+        <v>0.1164103058877682</v>
       </c>
       <c r="T7">
-        <v>0.01765045901283794</v>
+        <v>0.1164103058877682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>104.737245</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H8">
-        <v>314.211735</v>
+        <v>159.823902</v>
       </c>
       <c r="I8">
-        <v>0.289879649970129</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J8">
-        <v>0.2898796499701289</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.423734333333333</v>
+        <v>0.1408123333333333</v>
       </c>
       <c r="N8">
-        <v>7.271203</v>
+        <v>0.422437</v>
       </c>
       <c r="O8">
-        <v>0.8328699661798485</v>
+        <v>0.01914604775478091</v>
       </c>
       <c r="P8">
-        <v>0.8328699661798487</v>
+        <v>0.01914604775478091</v>
       </c>
       <c r="Q8">
-        <v>253.8552566852451</v>
+        <v>7.501725521019333</v>
       </c>
       <c r="R8">
-        <v>2284.697310167205</v>
+        <v>67.51552968917399</v>
       </c>
       <c r="S8">
-        <v>0.2414320542668477</v>
+        <v>0.002666030239746061</v>
       </c>
       <c r="T8">
-        <v>0.2414320542668477</v>
+        <v>0.002666030239746062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H9">
+        <v>159.823902</v>
+      </c>
+      <c r="I9">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J9">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.423734333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.271203</v>
+      </c>
+      <c r="O9">
+        <v>0.3295516251481434</v>
+      </c>
+      <c r="P9">
+        <v>0.3295516251481434</v>
+      </c>
+      <c r="Q9">
+        <v>129.1235595215673</v>
+      </c>
+      <c r="R9">
+        <v>1162.112035694106</v>
+      </c>
+      <c r="S9">
+        <v>0.04588908423583228</v>
+      </c>
+      <c r="T9">
+        <v>0.04588908423583229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>104.737245</v>
-      </c>
-      <c r="H9">
-        <v>314.211735</v>
-      </c>
-      <c r="I9">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J9">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.486365</v>
-      </c>
-      <c r="N9">
-        <v>1.459095</v>
-      </c>
-      <c r="O9">
-        <v>0.1671300338201514</v>
-      </c>
-      <c r="P9">
-        <v>0.1671300338201514</v>
-      </c>
-      <c r="Q9">
-        <v>50.94053016442501</v>
-      </c>
-      <c r="R9">
-        <v>458.4647714798251</v>
-      </c>
-      <c r="S9">
-        <v>0.0484475957032813</v>
-      </c>
-      <c r="T9">
-        <v>0.0484475957032813</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H10">
+        <v>159.823902</v>
+      </c>
+      <c r="I10">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J10">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.790095666666667</v>
+      </c>
+      <c r="N10">
+        <v>14.370287</v>
+      </c>
+      <c r="O10">
+        <v>0.6513023270970757</v>
+      </c>
+      <c r="P10">
+        <v>0.6513023270970758</v>
+      </c>
+      <c r="Q10">
+        <v>255.1905934666526</v>
+      </c>
+      <c r="R10">
+        <v>2296.715341199874</v>
+      </c>
+      <c r="S10">
+        <v>0.0906919131037994</v>
+      </c>
+      <c r="T10">
+        <v>0.09069191310379943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H11">
+        <v>273.054848</v>
+      </c>
+      <c r="I11">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J11">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1408123333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.422437</v>
+      </c>
+      <c r="O11">
+        <v>0.01914604775478091</v>
+      </c>
+      <c r="P11">
+        <v>0.01914604775478091</v>
+      </c>
+      <c r="Q11">
+        <v>12.81649675828622</v>
+      </c>
+      <c r="R11">
+        <v>115.348470824576</v>
+      </c>
+      <c r="S11">
+        <v>0.004554841126812587</v>
+      </c>
+      <c r="T11">
+        <v>0.004554841126812587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H12">
+        <v>273.054848</v>
+      </c>
+      <c r="I12">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J12">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.423734333333333</v>
+      </c>
+      <c r="N12">
+        <v>7.271203</v>
+      </c>
+      <c r="O12">
+        <v>0.3295516251481434</v>
+      </c>
+      <c r="P12">
+        <v>0.3295516251481434</v>
+      </c>
+      <c r="Q12">
+        <v>220.6041366602382</v>
+      </c>
+      <c r="R12">
+        <v>1985.437229942144</v>
+      </c>
+      <c r="S12">
+        <v>0.07840026907160846</v>
+      </c>
+      <c r="T12">
+        <v>0.07840026907160846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H13">
+        <v>273.054848</v>
+      </c>
+      <c r="I13">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J13">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.790095666666667</v>
+      </c>
+      <c r="N13">
+        <v>14.370287</v>
+      </c>
+      <c r="O13">
+        <v>0.6513023270970757</v>
+      </c>
+      <c r="P13">
+        <v>0.6513023270970758</v>
+      </c>
+      <c r="Q13">
+        <v>435.9862813890418</v>
+      </c>
+      <c r="R13">
+        <v>3923.876532501376</v>
+      </c>
+      <c r="S13">
+        <v>0.1549446999947928</v>
+      </c>
+      <c r="T13">
+        <v>0.1549446999947928</v>
       </c>
     </row>
   </sheetData>
